--- a/datosEmpresa.xlsx
+++ b/datosEmpresa.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05545AD2-5481-429D-83EC-D0705A2D22EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,14 +97,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -213,7 +217,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -455,7 +459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -467,7 +471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
